--- a/Excels/Example.xlsx
+++ b/Excels/Example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E9AFF-C9E5-4437-9A88-8542F4AF5378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63177AB5-C869-4681-A0EB-B9A0E680EA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -589,9 +589,7 @@
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
-        <v>111</v>
-      </c>
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
